--- a/Backtest Holy/backTest Extra.xlsx
+++ b/Backtest Holy/backTest Extra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,6 +1272,56 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[0.14012456, 0.09995371]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[0.115718774, 0.08393655]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[0.059907272, 0.041781664]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[0.045967877, 0.03075137]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[0.13509925, 0.09892566]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[0.10457108, 0.07420829]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[0.053863637, 0.03604066]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[0.042199317, 0.029467793]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backtest Holy/backTest Extra.xlsx
+++ b/Backtest Holy/backTest Extra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,6 +1322,356 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[0.13250159, 0.09730464]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[0.10412554, 0.07395079]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[0.053834546, 0.03595199]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[0.042295545, 0.029794358]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[0.12771937, 0.09393576]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[0.107344575, 0.078752205]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[0.05274756, 0.035440784]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[0.045317423, 0.032227226]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[0.12760642, 0.0940474]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[0.105018996, 0.07548173]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[0.05339755, 0.035116762]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[0.04509822, 0.032080565]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[0.12747253, 0.09353869]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[0.10472094, 0.07589052]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[0.05405565, 0.03704672]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[0.04683914, 0.03348406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[0.12791593, 0.09430386]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[0.1047269, 0.07452001]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[0.05408696, 0.036060244]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[0.042930134, 0.029951058]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[0.12644693, 0.09309554]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[0.1025991, 0.07341959]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[0.052561894, 0.034681655]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[0.043611873, 0.031141154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[0.12656035, 0.09318236]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[0.102578, 0.073639534]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0.052609786, 0.03470881]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[0.04378516, 0.031220624]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[0.12650882, 0.09314977]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[0.10258025, 0.073572606]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[0.052604824, 0.03467088]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[0.04382941, 0.031284876]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[0.12649697, 0.09318556]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[0.10272604, 0.073592074]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[0.052491225, 0.034527026]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[0.04382014, 0.031251505]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[0.12643945, 0.09282002]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0.103027634, 0.07438484]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0.05326263, 0.035145827]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[0.045314867, 0.032642603]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[0.1266566, 0.09305865]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[0.10414766, 0.07466892]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0.054096486, 0.036533043]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[0.045002136, 0.03242754]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[0.12647142, 0.092869386]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[0.10324563, 0.074650966]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[0.053361006, 0.035368387]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[0.04484687, 0.03211311]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.1263616, 0.09276861]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[0.10309066, 0.074185655]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0.05426605, 0.036822025]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[0.04544131, 0.032716695]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[0.12697335, 0.09348905]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[0.10351354, 0.073537156]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0.053916223, 0.035096306]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[0.043092325, 0.029624365]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
